--- a/Operaciones_Binarias.xlsx
+++ b/Operaciones_Binarias.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upbeduco-my.sharepoint.com/personal/cesar_lopezg_upb_edu_co/Documents/Cursos Pregrado/Fundamentos_Prog_IEE/git_h/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D2F04E46CFB4ACB3E20F27D16CEAA693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC50561-426C-45BC-99DD-BBABC5C2F38B}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4D2F04E46CFB4ACB3E20F27D16CEAA693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACE8155-895A-4EE3-B402-3CB010C89E34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sumas_Prod" sheetId="1" r:id="rId1"/>
+    <sheet name="División" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cesar Augusto Lopez Gallego</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{4B3660BD-F81A-4AC9-9E92-1A01F581E255}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cesar Augusto Lopez Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Para facilidad sacamos los bit 0 de la izquierda de cada término</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Complemento a 1</t>
   </si>
@@ -149,12 +184,119 @@
   <si>
     <t>106.. Hay desborde</t>
   </si>
+  <si>
+    <t xml:space="preserve">6 × (–3) </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>6 --&gt;</t>
+  </si>
+  <si>
+    <t>-3 --&gt;</t>
+  </si>
+  <si>
+    <t>--&gt; -18 Ca2</t>
+  </si>
+  <si>
+    <t>46*(-2)</t>
+  </si>
+  <si>
+    <t>bit 0</t>
+  </si>
+  <si>
+    <t>bit 1</t>
+  </si>
+  <si>
+    <t>bit 2</t>
+  </si>
+  <si>
+    <t>bit 3</t>
+  </si>
+  <si>
+    <t>bit 4</t>
+  </si>
+  <si>
+    <t>bit 5</t>
+  </si>
+  <si>
+    <t>bit 6</t>
+  </si>
+  <si>
+    <t>bit 7</t>
+  </si>
+  <si>
+    <t>parcial</t>
+  </si>
+  <si>
+    <t>--&gt;-92Ca2</t>
+  </si>
+  <si>
+    <t>-4*-8</t>
+  </si>
+  <si>
+    <t>-4 Ca2</t>
+  </si>
+  <si>
+    <t>-8 Ca2</t>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <t>-20/10</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>Ca2</t>
+  </si>
+  <si>
+    <t>Paso 1</t>
+  </si>
+  <si>
+    <t>Paso 2</t>
+  </si>
+  <si>
+    <t>Abs|-20|--&gt;</t>
+  </si>
+  <si>
+    <t>Dividimos</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <r>
+      <t>|20|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>÷|10|</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>--&gt;Cociente binario</t>
+  </si>
+  <si>
+    <t>----------------&gt;Aún queda un bit para bajar, lo bajamos poniendo 0 en el cociente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +334,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,11 +458,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,8 +502,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,6 +548,2085 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>456307</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22047</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563A8C09-AE1D-4070-8367-8606038D1661}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7320657" y="13868400"/>
+            <a:ext cx="175340" cy="508000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Entrada de lápiz 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563A8C09-AE1D-4070-8367-8606038D1661}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7303015" y="13850399"/>
+              <a:ext cx="210984" cy="543643"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>128170</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4D8BE-E3E6-4D77-9A4C-B6CC5ECC9230}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7918200" y="13525280"/>
+            <a:ext cx="136800" cy="807840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Entrada de lápiz 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB4D8BE-E3E6-4D77-9A4C-B6CC5ECC9230}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7900200" y="13507640"/>
+              <a:ext cx="172440" cy="843480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469690</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>183860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4450</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>72010</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7815D4-74FA-4420-A545-07F623B8DA83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8553240" y="13099760"/>
+            <a:ext cx="144360" cy="1177200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Entrada de lápiz 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7815D4-74FA-4420-A545-07F623B8DA83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8544240" y="13091120"/>
+              <a:ext cx="162000" cy="1194840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412330</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6194</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E75A540-12C6-4B74-A289-C68DA45C970B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9105480" y="12795200"/>
+            <a:ext cx="203464" cy="1530400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Entrada de lápiz 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E75A540-12C6-4B74-A289-C68DA45C970B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9087474" y="12687532"/>
+              <a:ext cx="239115" cy="1746096"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342729</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEF7D80-89D5-46DE-A19C-D67827E6B66F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9645479" y="12395240"/>
+            <a:ext cx="323973" cy="1943060"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Entrada de lápiz 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEF7D80-89D5-46DE-A19C-D67827E6B66F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9627460" y="12287252"/>
+              <a:ext cx="359650" cy="2158676"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355570</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355930</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4B2CB4-90DE-4373-9A10-BBEF6D0DBAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6610320" y="14064920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Entrada de lápiz 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4B2CB4-90DE-4373-9A10-BBEF6D0DBAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6592320" y="13956920"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>507720</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508080</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23757D1-F38A-408C-92EE-0E1386CA1C50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5384520" y="14116040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23757D1-F38A-408C-92EE-0E1386CA1C50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5366520" y="14008400"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>35065</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Entrada de lápiz 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C72714C-7322-4A9E-9009-C4882AEF433C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6750050" y="14198330"/>
+            <a:ext cx="107950" cy="225835"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Entrada de lápiz 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C72714C-7322-4A9E-9009-C4882AEF433C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6741414" y="14189340"/>
+              <a:ext cx="125582" cy="243456"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552010</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552370</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146570</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99F66F8-FC80-4BB9-A381-510C1A09B891}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11073960" y="14167010"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Entrada de lápiz 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99F66F8-FC80-4BB9-A381-510C1A09B891}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11065320" y="14158010"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405610</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>121540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Entrada de lápiz 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9E75ED-CF90-41C5-B854-320C04EA8D19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10317960" y="12001610"/>
+            <a:ext cx="275040" cy="2324880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Entrada de lápiz 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9E75ED-CF90-41C5-B854-320C04EA8D19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10308960" y="11992611"/>
+              <a:ext cx="292680" cy="2342517"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317290</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317650</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101530</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Entrada de lápiz 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820A850C-1D55-4BF4-834F-9FC3A740212A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10839240" y="14858570"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Entrada de lápiz 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820A850C-1D55-4BF4-834F-9FC3A740212A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10830240" y="14849930"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>272770</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>183970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273130</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Entrada de lápiz 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A7211D-BEF2-45DE-BFC0-5DF0167828E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10185120" y="14941370"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Entrada de lápiz 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A7211D-BEF2-45DE-BFC0-5DF0167828E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10176120" y="14932370"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>425050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570490</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>79590</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="65" name="Entrada de lápiz 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22BA118-A377-48F0-974E-780224ED4673}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10337400" y="13518900"/>
+            <a:ext cx="145440" cy="2238840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="65" name="Entrada de lápiz 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22BA118-A377-48F0-974E-780224ED4673}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10328760" y="13510260"/>
+              <a:ext cx="163080" cy="2256480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456850</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8530</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Entrada de lápiz 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8CBA7D-BB64-4FB3-A17E-3F3581C06123}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9759600" y="13950900"/>
+            <a:ext cx="161280" cy="1783800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Entrada de lápiz 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8CBA7D-BB64-4FB3-A17E-3F3581C06123}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9750600" y="13942258"/>
+              <a:ext cx="178920" cy="1801444"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387130</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>69590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31330</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70590</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865C99A3-0D16-4073-9FBB-A68124F6D9FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9080280" y="14274540"/>
+            <a:ext cx="253800" cy="1474200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="Entrada de lápiz 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865C99A3-0D16-4073-9FBB-A68124F6D9FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9071280" y="14265542"/>
+              <a:ext cx="271440" cy="1491836"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380410</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>94770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543490</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66630</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Entrada de lápiz 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C89AC1-F019-4B51-91BF-8C0C088ED985}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8463960" y="14668020"/>
+            <a:ext cx="163080" cy="1076760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Entrada de lápiz 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C89AC1-F019-4B51-91BF-8C0C088ED985}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8455320" y="14659377"/>
+              <a:ext cx="180720" cy="1094406"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>120310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541810</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>11550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="Entrada de lápiz 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD72935-EBE7-411A-BB4F-C51651E5A380}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7835400" y="15061860"/>
+            <a:ext cx="180360" cy="627840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Entrada de lápiz 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD72935-EBE7-411A-BB4F-C51651E5A380}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7826760" y="15052865"/>
+              <a:ext cx="198000" cy="645470"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>50450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548410</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6732C780-B307-462F-8A35-ADF428790930}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7257600" y="15360300"/>
+            <a:ext cx="155160" cy="410400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="Entrada de lápiz 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6732C780-B307-462F-8A35-ADF428790930}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7248960" y="15351660"/>
+              <a:ext cx="172800" cy="428040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438010</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165270</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="Entrada de lápiz 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B55F19B-2667-42D1-BC48-62724F955889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6692760" y="15684300"/>
+            <a:ext cx="120240" cy="159120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Entrada de lápiz 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B55F19B-2667-42D1-BC48-62724F955889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6684120" y="15675660"/>
+              <a:ext cx="137880" cy="176760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107690</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B97E9E-BF81-41FA-B6F3-5C1EA191E7FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5016240" y="2412720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B97E9E-BF81-41FA-B6F3-5C1EA191E7FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5007240" y="2403720"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E1051E-5941-4F59-912C-090DE879F079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3987800" y="1790639"/>
+            <a:ext cx="1555750" cy="127061"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Entrada de lápiz 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E1051E-5941-4F59-912C-090DE879F079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3978799" y="1781640"/>
+              <a:ext cx="1573392" cy="144698"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78F9BBB-C887-47FF-BA36-EB8C808D6679}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2537640" y="1383120"/>
+            <a:ext cx="1260360" cy="118440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Entrada de lápiz 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78F9BBB-C887-47FF-BA36-EB8C808D6679}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2529000" y="1374480"/>
+              <a:ext cx="1278000" cy="136080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:46:55.734"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-7884.87842"/>
+      <inkml:brushProperty name="anchorY" value="-14063.46387"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-8784.32422"/>
+      <inkml:brushProperty name="anchorY" value="-15800.07813"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">145 0,'0'0,"0"4,0 11,0 5,0 8,0 2,0 1,0 4,0-1,0 3,0-3,0 4,0-3,0-3,0-2,0-3,0-1,0-1,0-2,0 6,0-1,0 0,0 0,4 3,1 0,-1-2,0 0,4 2,-2 4,0 0,-1-2,3-7,-2-3,0-1,-1-1,-3 0,0 10,-1 2,-1-1,0 0,0 2,-1-2,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="1634.56">1 1145,'0'0,"0"4,0 7,0 3,0 5,0 7,4-2,6 0,0 0,-1 0,3-5,-3-1,4-4,2-3,-2 0,3-3,1-1,2-3,2-2,2-1,5-5,1-1,0-6,-1-3,-1-4,-1-3,0-1,-2-2,-4-1,-2 5,-4 0,1 1,-4 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:53:44.990"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 0,'-2'2,"0"0,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 5,-2 33,3-29,-9 84,-1 21,4-5,-34 186,-44 276,46-298,12-10,4-26,10-92,9 201,5-175,-3-23,3 166,24-72,21-3,-33-175,81 517,-60-345,-25-172,21 126,-25-150,-3 0,-1 0,-4 47,0-7,0 38,4 153,4-226,14 59,-10-60,5 65,-9-20,8 207,-15-206,1-69</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1432.56">196 6191,'1'0,"0"1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,2 2,11 22,-12-23,33 81,-24-55,1 0,17 29,-27-55,1-1,-1 1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,4 1,-3-1,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,5-3,5-6,-1 0,1 0,-2-1,15-19,125-176,-129 176,-9 13,0 0,1 0,1 2,0 0,18-15,-18 21</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:53:47.137"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:53:47.697"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'1'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:14:05.370"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">230 1,'0'33,"1"10,-1 1,-3-1,-1 0,-14 58,6-47,3 1,-4 65,8-58,-17 78,9-75,2 0,3 0,0 79,-1 152,0 283,11-355,-2 2965,2-3160,1-1,1 1,16 52,1 14,-4-24,-10-45,6 52,4 71,-12-124,0 0,2 0,17 43,-17-55</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1509.44">1 5998,'3'0,"0"1,1-1,-1 1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,3 4,32 33,-37-37,44 56,-30-36,1-2,25 26,-40-44,1-1,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0-1,0 1,0 0,2-2,5-7,-1 1,0-1,-1 0,7-14,-8 14,28-55,17-31,-41 82,-3 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:14:13.053"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFC114"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 1,'3'53,"16"92,-3-36,32 296,-34-280,10 190,-23 618,-3-414,2 1104,1-1598,7 38,-4-37,2 36,-7 277,1-313</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1511.96">0 4693,'4'0,"0"1,-1-1,1 1,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,4 3,33 32,-37-34,13 16,0 0,-2 1,22 40,-15-25,-17-28,-1-2,0-1,0 1,0-1,0 1,1-1,5 5,-8-8,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,2-1,8-8,1 0,-2 0,1-1,-2-1,1 0,-1 0,7-14,45-99,-55 109,11-25,-9 23</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:14:22.700"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">264 0,'0'0,"-1"1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 1,-3 22,3-20,-4 24,-10 41,2-11,6-14,0 74,2-15,-5-3,-10 194,19 908,1-541,4-556,22 128,-14-143,-6-6,-5 121,-3-124,2-62,2 1,-1-1,2 1,1-1,7 19,-5-18,-2 0,0 1,-1 0,2 21,2 31,-1-22,-6-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1235.35">0 3881,'9'-1,"-1"1,0 0,0 1,0 0,0 0,0 1,-1 0,1 0,0 1,-1 0,0 0,1 1,-1 0,0 0,-1 1,1 0,7 7,41 42,-29-28,43 34,-64-57,-1 0,1 0,-1-1,1 0,0 0,0 0,0 0,0-1,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0-1,0 0,1 0,-1 0,0 0,0-1,0 0,0 0,5-3,10-7,1 0,-2-1,0-1,18-18,-25 22,10-10,-1-1,-1-2,-1 1,0-2,19-34,-30 43,-3 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:14:28.290"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">301 1,'0'1646,"-9"-1480,1-15,-1-4,1-14,5-96,-2 0,-13 54,8-48,-5 51,11-30,3-28,-3 1,-10 51,9-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1169.05">1 2701,'0'-1,"0"1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 1,21 8,-2 4,-2 1,1 1,-2 0,0 1,20 26,-5-7,-25-26,0 0,-1 0,0 1,-1 0,6 14,-6-13,0-1,0 0,1 0,8 10,-14-20,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1-1,16-33,-14 26,30-67,-12 26,51-90,-66 129</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:15:17.819"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#5B2D90"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">71 0,'4'1,"-1"-1,1 1,-1-1,1 1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,-1 0,1 0,0 1,1 3,3 7,-1 0,0 0,-1 0,3 21,-1 13,-2 0,-5 94,2 42,3-152,2-1,11 34,3 17,-9-19,3 107,-15 65,-1-93,2-119,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1367.18">1 1430,'8'0,"0"1,0 0,0 1,0 0,0 0,0 0,0 1,9 5,5 4,28 20,-41-25,0 1,-1-1,0 1,0 1,11 15,30 55,-20-32,-18-26,-8-15,0-1,0 0,0 0,0-1,5 6,-7-10,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,1-1,-1 0,9-27,-8 24,4-13,13-55,38-96,-51 155,1 0,1 1,0 0,0 0,18-19,-17 23</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:15:26.127"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">125 1,'3'0,"0"0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 4,2 9,-1-1,-1 1,0 0,-3 26,1-16,-2 496,4-313,-1-194</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1224.54">1 901,'2'0,"1"0,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,2 2,28 38,-19-23,0 1,-1 0,0 1,15 43,-25-58,-1-5,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,1 0,-1-1,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,3-1,17-15,-2 0,-1-2,30-39,-5 6,5-3,-32 36</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T22:15:35.069"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 1,'0'3,"0"4,0 3,0 7,0 3,0 1,0 0,0 0,0-1,0 2,0 0,0 3,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1537.26">1 248,'0'0,"0"-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,21 6,-17-3,1 0,-1 0,-1 0,1 0,-1 1,1 0,-1 0,-1 0,1 1,4 8,0 4,12 39,-2-6,-18-50,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1-1,2-1,29-34,-31 35,34-46,47-50,-69 85</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:47:18.698"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-13789.77637"/>
+      <inkml:brushProperty name="anchorY" value="-22230.63281"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-12925.74512"/>
+      <inkml:brushProperty name="anchorY" value="-23605.45703"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">212 1,'0'0,"0"6,0 5,0 7,0 2,0 6,0 6,0 7,0 5,0 5,0-1,0 6,0 3,0 2,0-1,0-4,0-5,0-1,0 0,0-4,0-1,0-4,0 3,0-6,0 3,0-1,0 0,0-4,0-1,0-1,0 4,0 1,0-3,0 6,0-3,0 0,0 6,0 0,0 7,0-1,0 1,0-3,0 5,0 0,0-6,0 1,0-4,0-3,0-1,0-6,0-4,0-1,0-4,0 2,0-1,0-3,0-1,0-1,-3-5,-4-4,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="1912.69">0 2047,'0'0,"0"-3,4 2,3 5,4 4,-1 3,2 4,2 1,-2 2,4 0,4 1,-1-1,-1 0,1 0,-2-3,1-5,-1-3,1-3,-1-3,0 0,1-2,0 0,-4-3,0-3,-4-4,-2-3,0-2,-2-2,-2 0,0 0,-3 0,4 0,-1 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T23:17:07.126"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T23:17:09.106"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4321 187,'-2457'0,"2136"-7,9 0,255 6,-74-5,-31 0,-81 5,209 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1798.58">565 0,'-1'1,"0"0,0 0,0 0,-1 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-3 1,-6 2,-340 104,328-101,2 1,0 0,1 0,1 1,-15 8,30-14,0 0,1 0,0 0,0 0,0 1,1-1,0 0,0 0,1 0,0 1,0-1,0 0,1 1,0-1,1 0,-1 0,1 1,0-1,1 0,0 0,0 1,0-1,1 0,0 0,0 0,1 0,4 2,8 2,1 0,1-1,0 0,0 0,2 0,0-1,0 0,1-1,1 1,-1-1,24 2,75 12,90 21,-184-33</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T23:37:41.776"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3500 286,'0'-5,"0"0,0 0,0 0,-1 0,1 0,-1 0,0 1,-1-1,1 0,-1 0,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 1,0-1,-1 0,0 1,0 0,0 0,0 0,0 0,-6-2,-9-5,-1 1,0 0,-1 1,0 2,0 0,0 1,-1 1,1 1,-33 0,-90-6,-211-41,106 11,147 31,-151 7,120 3,-1106-2,1214 1,-1 1,1 2,0 0,0 2,0 1,-37 15,-12 1,49-16,0 1,-32 14,-22 12,60-27,0 0,1 1,0 1,0 1,1 0,1 1,-20 17,-27 43,51-57,3-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:47:30.335"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 1,'1'92,"18"129,-12-172,23 134,-22-125,-2-1,-2 1,-6 77,0-32,2 1161,9-1129,1-3,-11 540,1-658</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2135.49">0 3052,'4'0,"0"1,0-1,0 1,-1 0,1 1,0-1,-1 0,1 1,-1 0,1 0,-1 0,3 3,39 35,-34-29,27 26,-21-18,2-1,0 0,1-2,28 18,-47-33,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,0 1,1-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,2-2,2-4,1-1,-1 0,-1 0,6-13,-2 6,33-61,-34 64</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:49:30.731"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">336 1,'0'10,"0"10,0 4,0 9,0 12,-3 5,-2 4,1 4,0 4,2 2,0 4,2 0,-1-2,1-1,0 1,1 0,-1-2,0-1,0-2,0-1,0-3,0-3,0 1,0-6,0-5,0-3,0-2,0-4,0-1,0 0,0 4,0 6,0-1,0 5,0 5,0 0,0-2,0-7,0-1,0-3,0-4,0-3,0-1,0-2,0 3,0 0,0 4,0-1,0 4,0 8,0 6,0-2,0 2,0 3,0 5,0 5,0 5,0-3,0 10,0 8,0 6,0 2,0-4,0-2,0-11,0-5,0-4,0-5,0 5,0-1,0-4,0-10,0-8,0-4,0-7,0-5,0-5,0-3,0-2,0-1,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1375.25">1 4059,'10'3,"3"5,3 4,3 0,0 1,1 3,0-3,-3 1,3 1,0 1,1-2,0 0,-1 1,1-2,3-3,-3-7,2-14,0-11,0-7,2-7,1-4,2 0,4-2,-1 6,-3 2,-5 7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:49:37.117"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#5B2D90"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">459 0,'3'0,"1"4,4 3,-1 5,-1 2,-1 4,-2 4,-1 2,-2 3,0 4,0 2,0 7,0 5,-1 5,1 4,0 5,0 3,0 10,0 3,0 1,0-5,0-3,0-2,0 0,0-1,0 5,0-1,0 5,0 3,0 1,0 0,0 7,0 1,0-1,0 5,0 7,0-1,0 7,0 4,0-2,0-3,0-6,0 0,0-3,0-4,3-2,2-2,-1 1,-1 1,0 3,-2 9,0 3,-1 0,0-3,0-6,0-9,0-9,0-5,-1-7,1-11,0-2,0-2,0-7,0 0,0-1,0 0,0-5,0 3,0-3,0-4,0-4,0-3,0-2,0-2,0-2,0 4,0 1,7 2,2 2,-1 1,-1 3,-2 3,-2 2,-2-2,3 0,0-3,0 0,2-2,0-3,-1-2,-1 1,-1 2,-2 1,3 1,1 0,-1-3,-1-1,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1321.34">1 4980,'10'3,"9"4,8 5,6 6,4 4,-1 1,0 3,0 4,0 0,-5-2,-2-3,-3-2,1-1,0-5,-3-3,-1 1,-2 0,-1-2,-4 0,2 1,1 1,-3 2,3-6,1-7,0-12,4-10,3-9,2-10,1-4,0 1,-7 4,-2 2,-3 6,-3 5,-2 7,-3 2,0 1,2 2,-2 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:49:48.888"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:49:50.499"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:51:33.653"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">92 0,'2'2,"-1"0,0 0,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0 2,0 30,-1-25,1 270,-2-134,1-135</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1276.33">1 461,'0'4,"1"0,0 0,0 0,0 0,1 0,-1 0,1-1,4 7,2 5,-4-4,0-1,2 1,-1-1,1-1,0 1,1-1,0 0,17 15,-22-23,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,4-1,3-3,1-1,-1 0,9-8,-4 4,45-37,-52 40,1 0,-1 0,0 0,-1-1,9-15,-8 12</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-23T21:51:35.975"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,15 +2892,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="D97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1196,8 +3562,1957 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>-2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <v>1</v>
+      </c>
+      <c r="N54" s="12">
+        <v>1</v>
+      </c>
+      <c r="O54" s="12">
+        <v>1</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <v>1</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>1</v>
+      </c>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>1</v>
+      </c>
+      <c r="K58" s="12">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0</v>
+      </c>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12">
+        <v>1</v>
+      </c>
+      <c r="L60" s="12">
+        <v>1</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="12">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
+        <v>1</v>
+      </c>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12">
+        <v>1</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>1</v>
+      </c>
+      <c r="K64" s="12">
+        <v>0</v>
+      </c>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>1</v>
+      </c>
+      <c r="J66" s="15">
+        <v>1</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <v>1</v>
+      </c>
+      <c r="M66" s="15">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0</v>
+      </c>
+      <c r="O66" s="15">
+        <v>1</v>
+      </c>
+      <c r="P66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J67">
+        <v>-128</v>
+      </c>
+      <c r="L67">
+        <v>32</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="10">
+        <v>0</v>
+      </c>
+      <c r="M75" s="10">
+        <v>0</v>
+      </c>
+      <c r="N75" s="10">
+        <v>0</v>
+      </c>
+      <c r="O75" s="10">
+        <v>1</v>
+      </c>
+      <c r="P75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9">
+        <v>0</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9">
+        <v>1</v>
+      </c>
+      <c r="N76" s="9">
+        <v>1</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0</v>
+      </c>
+      <c r="L77" s="10">
+        <v>0</v>
+      </c>
+      <c r="M77" s="10">
+        <v>1</v>
+      </c>
+      <c r="N77" s="10">
+        <v>1</v>
+      </c>
+      <c r="O77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>1</v>
+      </c>
+      <c r="M78" s="9">
+        <v>1</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <v>1</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0</v>
+      </c>
+      <c r="M79" s="10">
+        <v>0</v>
+      </c>
+      <c r="N79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+      <c r="I80" s="9">
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9">
+        <v>1</v>
+      </c>
+      <c r="L80" s="9">
+        <v>1</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
+        <v>1</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="10">
+        <v>1</v>
+      </c>
+      <c r="M81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
+        <v>1</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="I83" s="10">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1</v>
+      </c>
+      <c r="L83" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1</v>
+      </c>
+      <c r="J84" s="9">
+        <v>1</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>1</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <v>1</v>
+      </c>
+      <c r="K85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="9">
+        <v>0</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1</v>
+      </c>
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
+        <v>1</v>
+      </c>
+      <c r="K87" s="14">
+        <v>1</v>
+      </c>
+      <c r="L87" s="14">
+        <v>1</v>
+      </c>
+      <c r="M87" s="14">
+        <v>0</v>
+      </c>
+      <c r="N87" s="14">
+        <v>1</v>
+      </c>
+      <c r="O87" s="14">
+        <v>1</v>
+      </c>
+      <c r="P87" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9">
+        <v>0</v>
+      </c>
+      <c r="O93" s="9">
+        <v>0</v>
+      </c>
+      <c r="P93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0</v>
+      </c>
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+      <c r="N94" s="9">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="12">
+        <v>1</v>
+      </c>
+      <c r="H96" s="12">
+        <v>1</v>
+      </c>
+      <c r="I96" s="12">
+        <v>1</v>
+      </c>
+      <c r="J96" s="12">
+        <v>1</v>
+      </c>
+      <c r="K96" s="12">
+        <v>1</v>
+      </c>
+      <c r="L96" s="12">
+        <v>1</v>
+      </c>
+      <c r="M96" s="12">
+        <v>0</v>
+      </c>
+      <c r="N96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="16">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>1</v>
+      </c>
+      <c r="H98" s="12">
+        <v>1</v>
+      </c>
+      <c r="I98" s="12">
+        <v>1</v>
+      </c>
+      <c r="J98" s="12">
+        <v>1</v>
+      </c>
+      <c r="K98" s="12">
+        <v>0</v>
+      </c>
+      <c r="L98" s="12">
+        <v>1</v>
+      </c>
+      <c r="M98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="16">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>1</v>
+      </c>
+      <c r="H100" s="12">
+        <v>1</v>
+      </c>
+      <c r="I100" s="12">
+        <v>1</v>
+      </c>
+      <c r="J100" s="12">
+        <v>0</v>
+      </c>
+      <c r="K100" s="12">
+        <v>0</v>
+      </c>
+      <c r="L100" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="16">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>1</v>
+      </c>
+      <c r="H102" s="12">
+        <v>1</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0</v>
+      </c>
+      <c r="J102" s="12">
+        <v>0</v>
+      </c>
+      <c r="K102" s="12">
+        <v>0</v>
+      </c>
+      <c r="L102" s="13"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C104" s="17">
+        <v>1</v>
+      </c>
+      <c r="D104" s="17">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17">
+        <v>0</v>
+      </c>
+      <c r="F104" s="17">
+        <v>0</v>
+      </c>
+      <c r="G104" s="17">
+        <v>1</v>
+      </c>
+      <c r="H104" s="17">
+        <v>0</v>
+      </c>
+      <c r="I104" s="17">
+        <v>0</v>
+      </c>
+      <c r="J104" s="14">
+        <v>0</v>
+      </c>
+      <c r="K104" s="14">
+        <v>0</v>
+      </c>
+      <c r="L104" s="14">
+        <v>1</v>
+      </c>
+      <c r="M104" s="14">
+        <v>0</v>
+      </c>
+      <c r="N104" s="14">
+        <v>0</v>
+      </c>
+      <c r="O104" s="14">
+        <v>0</v>
+      </c>
+      <c r="P104" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B109" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257DF6AE-8EB5-4640-90ED-17F71B4844CB}">
+  <dimension ref="A2:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="20" width="5.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <v>1</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>